--- a/Data/Medals2.xlsx
+++ b/Data/Medals2.xlsx
@@ -44,7 +44,7 @@
     <t>Num_Silver</t>
   </si>
   <si>
-    <t>NumBronxe</t>
+    <t>Num_Bronze</t>
   </si>
 </sst>
 </file>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,9 +1368,15 @@
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">

--- a/Data/Medals2.xlsx
+++ b/Data/Medals2.xlsx
@@ -35,9 +35,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Num_Gold</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>Num_Bronze</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>1896</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>1900</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
@@ -1400,7 +1400,7 @@
         <v>1904</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -1417,7 +1417,7 @@
         <v>1908</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7">
         <v>5</v>
@@ -1434,7 +1434,7 @@
         <v>1912</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <v>10</v>
@@ -1451,7 +1451,7 @@
         <v>1920</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C33" s="7">
         <v>15</v>
@@ -1468,7 +1468,7 @@
         <v>1924</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34" s="7">
         <v>17</v>
@@ -1485,7 +1485,7 @@
         <v>1928</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C35" s="7">
         <v>32</v>
@@ -1502,7 +1502,7 @@
         <v>1932</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C36" s="7">
         <v>20</v>
@@ -1519,7 +1519,7 @@
         <v>1936</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C37" s="7">
         <v>28</v>
@@ -1536,7 +1536,7 @@
         <v>1948</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C38" s="7">
         <v>32</v>
@@ -1553,7 +1553,7 @@
         <v>1952</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39" s="7">
         <v>46</v>
@@ -1570,7 +1570,7 @@
         <v>1956</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C40" s="7">
         <v>46</v>
@@ -1587,7 +1587,7 @@
         <v>1960</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C41" s="7">
         <v>49</v>
@@ -1604,7 +1604,7 @@
         <v>1964</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42" s="7">
         <v>63</v>
@@ -1621,7 +1621,7 @@
         <v>1968</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C43" s="7">
         <v>71</v>
@@ -1638,7 +1638,7 @@
         <v>1972</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C44" s="7">
         <v>80</v>
@@ -1655,7 +1655,7 @@
         <v>1976</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C45" s="7">
         <v>127</v>
@@ -1672,7 +1672,7 @@
         <v>1980</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46" s="7">
         <v>143</v>
@@ -1689,7 +1689,7 @@
         <v>1984</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C47" s="7">
         <v>163</v>
@@ -1706,7 +1706,7 @@
         <v>1988</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7">
         <v>172</v>
@@ -1723,7 +1723,7 @@
         <v>1992</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C49" s="7">
         <v>200</v>
@@ -1740,7 +1740,7 @@
         <v>1996</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C50" s="7">
         <v>259</v>
@@ -1757,7 +1757,7 @@
         <v>2000</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C51" s="7">
         <v>293</v>
@@ -1774,7 +1774,7 @@
         <v>2004</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C52" s="7">
         <v>298</v>
@@ -1791,7 +1791,7 @@
         <v>2008</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C53" s="7">
         <v>307</v>
